--- a/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
-  <si>
-    <t>SM18_microstate_IDs_with_2D_depiction.csv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+  <si>
+    <t>Microstate List</t>
   </si>
   <si>
     <t>Molecule</t>
@@ -58,12 +58,6 @@
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CC/C(=N/c3ncc(s3)Cc4ccc(c(c4)F)F)/[O-]</t>
   </si>
   <si>
-    <t>SM18_micro006</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)[n-]c([nH+]2)CCC(=O)[NH+]=c3[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro007</t>
   </si>
   <si>
@@ -94,24 +88,12 @@
     <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/N=C/3\N=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
   </si>
   <si>
-    <t>SM18_micro012</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(nc([nH+]2)CCC(=O)Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
     <t>SM18_micro013</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=C/3\N=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
-    <t>SM18_micro014</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=[NH+]c3[nH]cc([s+]3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
     <t>SM18_micro015</t>
   </si>
   <si>
@@ -130,12 +112,6 @@
     <t>c1ccc2c(c1)c(nc(n2)C[CH-]C(=[OH+])/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)O</t>
   </si>
   <si>
-    <t>SM18_micro018</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)[n-]c([nH+]2)CCC(=[NH+]c3[n-]cc([s+]3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
     <t>SM18_micro019</t>
   </si>
   <si>
@@ -154,24 +130,6 @@
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=[OH+])[N-]c3ncc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
-    <t>SM18_micro022</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=[NH+]c3[n-]cc([s+]3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
-    <t>SM18_micro023</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(nc([nH+]2)CCC(=O)[N-]c3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
-    <t>SM18_micro024</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(nc([nH+]2)CCC(=Nc3[n-]cc([s+]3)Cc4ccc(c(c4)F)F)[O-])[O-]</t>
-  </si>
-  <si>
     <t>SM18_micro025</t>
   </si>
   <si>
@@ -238,12 +196,6 @@
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/N=C/3\N=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
-    <t>SM18_micro036</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
     <t>SM18_micro037</t>
   </si>
   <si>
@@ -326,12 +278,6 @@
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)C/C=C(/Nc3ncc(s3)Cc4ccc(c(c4)F)F)\O</t>
-  </si>
-  <si>
-    <t>SM18_micro051</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
     <t>SM18_micro052</t>
@@ -3036,348 +2982,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="203377800"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="tmp67.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="206549625"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="tmp68.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="209721450"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="tmp69.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="212893275"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="tmp70.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="216065100"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="tmp71.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="219236925"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="tmp72.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="222408750"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="tmp73.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="225580575"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="tmp74.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="228752400"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="tmp75.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="231924225"/>
           <a:ext cx="3175163" cy="3175163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3675,7 +3279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4222,78 +3826,6 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B68" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B70" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B72" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B74" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B76" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Microstate List</t>
   </si>
@@ -64,12 +64,6 @@
     <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)C/C=C(/Nc3ncc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
-    <t>SM18_micro008</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)[N-]c3[n-]cc([s+]3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro009</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=C/3\N=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
-    <t>SM18_micro015</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/N=C\3/[NH+]=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
     <t>SM18_micro016</t>
   </si>
   <si>
@@ -112,12 +100,6 @@
     <t>c1ccc2c(c1)c(nc(n2)C[CH-]C(=[OH+])/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)O</t>
   </si>
   <si>
-    <t>SM18_micro019</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=O)/[NH+]=C\3/N=CC(S3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro020</t>
   </si>
   <si>
@@ -142,12 +124,6 @@
     <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=O)Nc3[nH+]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
-    <t>SM18_micro027</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/N=c\3/[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro028</t>
   </si>
   <si>
@@ -190,12 +166,6 @@
     <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=O)Nc3ncc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
-    <t>SM18_micro035</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/N=C/3\N=CC(S3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro037</t>
   </si>
   <si>
@@ -208,54 +178,18 @@
     <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/[NH+]=C/3\N=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
   </si>
   <si>
-    <t>SM18_micro039</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/N=C\3/N=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
-    <t>SM18_micro040</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/N=c\3/[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
-    <t>SM18_micro041</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/[NH+]=C\3/N=CC(S3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro042</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=c\3/[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
-    <t>SM18_micro043</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=C\3/[NH+]=CC(S3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
-    <t>SM18_micro044</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/[NH+]=C\3/N=CC(S3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro045</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(nc(n2)C/C=C(/Nc3ncc(s3)Cc4ccc(c(c4)F)F)\[O-])[O-]</t>
   </si>
   <si>
-    <t>SM18_micro046</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=O)/N=c\3/[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro047</t>
   </si>
   <si>
@@ -364,18 +298,6 @@
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CC/C(=N/c3ncc(s3)Cc4ccc(c(c4)F)F)/[O-]</t>
   </si>
   <si>
-    <t>SM18_micro066</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/[NH+]=C\3/N=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
-  </si>
-  <si>
-    <t>SM18_micro067</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=C\3/N=CC(S3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
     <t>SM18_micro068</t>
   </si>
   <si>
@@ -404,12 +326,6 @@
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=[OH+])[N-]c3ncc(s3)Cc4ccc(c(c4)F)F</t>
-  </si>
-  <si>
-    <t>SM18_micro073</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/N=C\3/[NH+]=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
     <t>SM18_micro074</t>
@@ -2450,538 +2366,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="158972250"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52" descr="tmp53.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="162144075"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53" descr="tmp54.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="165315900"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54" descr="tmp55.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="168487725"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55" descr="tmp56.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="171659550"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56" descr="tmp57.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="174831375"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57" descr="tmp58.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="178003200"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58" descr="tmp59.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="181175025"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="tmp60.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="184346850"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60" descr="tmp61.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="187518675"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="tmp62.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="190690500"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62" descr="tmp63.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="193862325"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="tmp64.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="197034150"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="tmp65.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="200205975"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="tmp66.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="203377800"/>
           <a:ext cx="3175163" cy="3175163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3279,7 +2663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3714,118 +3098,6 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B54" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B58" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B60" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B64" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B66" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
   <si>
     <t>Microstate List</t>
   </si>
@@ -28,12 +28,18 @@
     <t>canonical isomeric SMILES</t>
   </si>
   <si>
+    <t>canonical SMILES</t>
+  </si>
+  <si>
     <t>SM18_micro001</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/[NH+]=C/3\N=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)[NH+]=C3N=CC(S3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro002</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>c1ccc2c(c1)c(=O)nc([nH]2)C/C=C(/Nc3[nH+]cc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CC=C(Nc3[nH+]cc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro004</t>
   </si>
   <si>
@@ -58,36 +67,54 @@
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CC/C(=N/c3ncc(s3)Cc4ccc(c(c4)F)F)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro007</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)C/C=C(/Nc3ncc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CC=C(Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro009</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/N=C\3/N=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)N=C3N=CC(S3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro010</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/N=C/3\[NH+]=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)N=C3[NH+]=CC(S3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro011</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/N=C/3\N=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)N=C3N=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro013</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=C/3\N=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)N=C3N=CC(S3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro016</t>
   </si>
   <si>
@@ -100,12 +127,18 @@
     <t>c1ccc2c(c1)c(nc(n2)C[CH-]C(=[OH+])/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)O</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)C[CH-]C(=[OH+])N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)O</t>
+  </si>
+  <si>
     <t>SM18_micro020</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)nc([nH]2)C/C=C(/Nc3ncc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CC=C(Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro021</t>
   </si>
   <si>
@@ -118,6 +151,9 @@
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro026</t>
   </si>
   <si>
@@ -136,12 +172,18 @@
     <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=O)/[NH+]=C/3\N=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=O)[NH+]=C3N=CC(S3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro030</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)C/C=C(/Nc3[nH+]cc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CC=C(Nc3[nH+]cc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro031</t>
   </si>
   <si>
@@ -154,12 +196,18 @@
     <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro033</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(nc(n2)CC/C(=N/c3ncc(s3)Cc4ccc(c(c4)F)F)/[O-])O</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CCC(=Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-])O</t>
+  </si>
+  <si>
     <t>SM18_micro034</t>
   </si>
   <si>
@@ -172,60 +220,90 @@
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)/[NH+]=C/3\N=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=O)[NH+]=C3N=CC(S3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro038</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/[NH+]=C/3\N=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)[NH+]=C3N=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro042</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=c\3/[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro045</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(nc(n2)C/C=C(/Nc3ncc(s3)Cc4ccc(c(c4)F)F)\[O-])[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CC=C(Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-])[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro047</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CC/C(=N/c3ncc(s3)Cc4ccc(c(c4)F)F)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro048</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)nc([nH]2)C/C=C(/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CC=C(N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro049</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(nc(n2)CC/C(=N/c3ncc(s3)Cc4ccc(c(c4)F)F)/[O-])[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CCC(=Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-])[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro050</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)C/C=C(/Nc3ncc(s3)Cc4ccc(c(c4)F)F)\O</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CC=C(Nc3ncc(s3)Cc4ccc(c(c4)F)F)O</t>
+  </si>
+  <si>
     <t>SM18_micro052</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)C/C=C(/[N-]c3ncc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CC=C([N-]c3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro053</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)/N=C/3\[NH+]=CC(S3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=O)N=C3[NH+]=CC(S3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro054</t>
   </si>
   <si>
@@ -238,6 +316,9 @@
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=[OH+])/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=[OH+])N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro056</t>
   </si>
   <si>
@@ -250,6 +331,9 @@
     <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)O</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)O</t>
+  </si>
+  <si>
     <t>SM18_micro058</t>
   </si>
   <si>
@@ -262,6 +346,9 @@
     <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=[OH+])/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)nc([nH]2)CCC(=[OH+])N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro060</t>
   </si>
   <si>
@@ -274,36 +361,54 @@
     <t>c1ccc2c(c1)c(nc(n2)CCC(=O)/N=C/3\[NH+]=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CCC(=O)N=C3[NH+]=CC(S3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro062</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)C/C=C(/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CC=C(N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro063</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=O)/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CCC(=O)N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
     <t>SM18_micro064</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(nc(n2)C/C=C(/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)\[O-])[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(nc(n2)CC=C(N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-])[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro065</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)CC/C(=N/c3ncc(s3)Cc4ccc(c(c4)F)F)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CCC(=Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro068</t>
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)C/C=C(/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
   </si>
   <si>
+    <t>c1ccc2c(c1)c(=O)[nH+]c([nH]2)CC=C(N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
+  </si>
+  <si>
     <t>SM18_micro069</t>
   </si>
   <si>
@@ -314,6 +419,9 @@
   </si>
   <si>
     <t>c1ccc2c(c1)c(=O)[nH]c(n2)C/C=C(/Nc3ncc(s3)Cc4ccc(c(c4)F)F)\[O-]</t>
+  </si>
+  <si>
+    <t>c1ccc2c(c1)c(=O)[nH]c(n2)CC=C(Nc3ncc(s3)Cc4ccc(c(c4)F)F)[O-]</t>
   </si>
   <si>
     <t>SM18_micro071</t>
@@ -2672,14 +2780,15 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2689,413 +2798,569 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>79</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>85</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>102</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>107</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>112</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>114</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>120</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>126</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>129</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>132</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>134</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>105</v>
+        <v>141</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
   <si>
     <t>Microstate List</t>
   </si>
@@ -440,6 +440,15 @@
   </si>
   <si>
     <t>c1ccc2c(c1)c(=[OH+])[nH]c(n2)CCC(=O)Nc3ncc(s3)Cc4ccc(c(c4)F)F</t>
+  </si>
+  <si>
+    <t>SM18_micro075</t>
+  </si>
+  <si>
+    <t>c1ccc2c(c1)c(nc(n2)C/C=C(/N=c/3\[nH]cc(s3)Cc4ccc(c(c4)F)F)\[O-])O</t>
+  </si>
+  <si>
+    <t>c1ccc2c(c1)c(nc(n2)CC=C(N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-])O</t>
   </si>
 </sst>
 </file>
@@ -2474,6 +2483,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="158972250"/>
+          <a:ext cx="3175163" cy="3175163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3175163</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="tmp53.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="162144075"/>
           <a:ext cx="3175163" cy="3175163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2771,7 +2818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3363,6 +3410,17 @@
         <v>141</v>
       </c>
     </row>
+    <row r="54" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
+      <c r="B54" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM18_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
   <si>
     <t>Microstate List</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>c1ccc2c(c1)c(nc(n2)CC=C(N=c3[nH]cc(s3)Cc4ccc(c(c4)F)F)[O-])O</t>
+  </si>
+  <si>
+    <t>SM18_micro076</t>
+  </si>
+  <si>
+    <t>c1ccc2c(c1)c(=[OH+])nc([nH]2)CCC(=O)Nc3[nH+]cc(s3)Cc4ccc(c(c4)F)F</t>
   </si>
 </sst>
 </file>
@@ -2521,6 +2527,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="162144075"/>
+          <a:ext cx="3175163" cy="3175163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3175163</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="tmp54.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="165315900"/>
           <a:ext cx="3175163" cy="3175163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2818,7 +2862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3421,6 +3465,17 @@
         <v>144</v>
       </c>
     </row>
+    <row r="55" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
+      <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
